--- a/design/Specification/Specification_v0.4_20_12_2022.xlsx
+++ b/design/Specification/Specification_v0.4_20_12_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan Petrov\Documents\GitHub\OmniBot\design\Specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FACED20-CA6D-4524-A9CB-384F52A5F726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD3E9AD-5956-4324-86E6-82E1890DEA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10785,22 +10785,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
+  <sheetPr filterMode="1">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F85" sqref="A10:F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.7265625" customWidth="1"/>
-    <col min="3" max="3" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="88.1796875" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="80.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -10926,7 +10928,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
@@ -10946,7 +10948,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>13</v>
       </c>
@@ -10966,7 +10968,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
@@ -10986,7 +10988,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>15</v>
       </c>
@@ -11006,7 +11008,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
@@ -11026,7 +11028,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
         <v>17</v>
       </c>
@@ -11046,7 +11048,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>18</v>
       </c>
@@ -11066,7 +11068,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
         <v>19</v>
       </c>
@@ -11146,7 +11148,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
         <v>23</v>
       </c>
@@ -11166,7 +11168,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="24" t="s">
         <v>24</v>
       </c>
@@ -11186,7 +11188,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="25" t="s">
         <v>25</v>
       </c>
@@ -11206,7 +11208,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
         <v>26</v>
       </c>
@@ -11226,7 +11228,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="27" t="s">
         <v>27</v>
       </c>
@@ -11246,7 +11248,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="28" t="s">
         <v>28</v>
       </c>
@@ -11286,7 +11288,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="30" t="s">
         <v>30</v>
       </c>
@@ -11306,7 +11308,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="31" t="s">
         <v>31</v>
       </c>
@@ -11346,7 +11348,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="33" t="s">
         <v>33</v>
       </c>
@@ -11366,7 +11368,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="34" t="s">
         <v>34</v>
       </c>
@@ -11386,7 +11388,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="35" t="s">
         <v>35</v>
       </c>
@@ -11406,7 +11408,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="36" t="s">
         <v>36</v>
       </c>
@@ -11506,7 +11508,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="41" t="s">
         <v>41</v>
       </c>
@@ -11526,7 +11528,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="42" t="s">
         <v>42</v>
       </c>
@@ -11546,7 +11548,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="43" t="s">
         <v>43</v>
       </c>
@@ -11566,7 +11568,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="44" t="s">
         <v>44</v>
       </c>
@@ -11586,7 +11588,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="45" t="s">
         <v>45</v>
       </c>
@@ -11626,7 +11628,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="47" t="s">
         <v>47</v>
       </c>
@@ -11666,7 +11668,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="49" t="s">
         <v>49</v>
       </c>
@@ -11686,7 +11688,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="50" t="s">
         <v>50</v>
       </c>
@@ -11706,7 +11708,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="51" t="s">
         <v>51</v>
       </c>
@@ -11726,7 +11728,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="52" t="s">
         <v>52</v>
       </c>
@@ -11766,7 +11768,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="54" t="s">
         <v>54</v>
       </c>
@@ -11826,7 +11828,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="57" t="s">
         <v>57</v>
       </c>
@@ -11846,7 +11848,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="58" t="s">
         <v>58</v>
       </c>
@@ -11866,7 +11868,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="59" t="s">
         <v>59</v>
       </c>
@@ -11886,7 +11888,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="60" t="s">
         <v>60</v>
       </c>
@@ -11906,7 +11908,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="61" t="s">
         <v>61</v>
       </c>
@@ -11926,7 +11928,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="62" t="s">
         <v>62</v>
       </c>
@@ -11966,7 +11968,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="64" t="s">
         <v>64</v>
       </c>
@@ -12006,7 +12008,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="66" t="s">
         <v>66</v>
       </c>
@@ -12026,7 +12028,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="67" t="s">
         <v>67</v>
       </c>
@@ -12046,7 +12048,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="68" t="s">
         <v>68</v>
       </c>
@@ -12066,7 +12068,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="69" t="s">
         <v>69</v>
       </c>
@@ -12086,7 +12088,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="70" t="s">
         <v>70</v>
       </c>
@@ -12106,7 +12108,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="71" t="s">
         <v>71</v>
       </c>
@@ -12126,7 +12128,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="72" t="s">
         <v>72</v>
       </c>
@@ -12186,7 +12188,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="75" t="s">
         <v>75</v>
       </c>
@@ -12206,7 +12208,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="76" t="s">
         <v>76</v>
       </c>
@@ -12226,7 +12228,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="77" t="s">
         <v>77</v>
       </c>
@@ -12266,7 +12268,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="79" t="s">
         <v>79</v>
       </c>
@@ -12306,7 +12308,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="81" t="s">
         <v>81</v>
       </c>
@@ -12326,7 +12328,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="82" t="s">
         <v>82</v>
       </c>
@@ -12346,7 +12348,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="83" t="s">
         <v>83</v>
       </c>
@@ -12366,7 +12368,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="84" t="s">
         <v>84</v>
       </c>
@@ -12386,7 +12388,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="85" t="s">
         <v>85</v>
       </c>
@@ -12406,7 +12408,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="86" t="s">
         <v>86</v>
       </c>
@@ -12426,7 +12428,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="87" t="s">
         <v>87</v>
       </c>
@@ -12466,7 +12468,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="89" t="s">
         <v>89</v>
       </c>
@@ -12486,7 +12488,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="90" t="s">
         <v>90</v>
       </c>
@@ -12508,6 +12510,39 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G85" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="AS 1112 - M2,5  Тип 5"/>
+        <filter val="AS 1112 - M4  Тип 10"/>
+        <filter val="AS 1112 - M4  Тип 5"/>
+        <filter val="BS 3692 - M5"/>
+        <filter val="BS EN 24 036 - M2.5"/>
+        <filter val="CNS 4309 - 4,5 A"/>
+        <filter val="CSN 02 1143 - M4 x 25"/>
+        <filter val="DIN 912 - M2 x 10"/>
+        <filter val="DIN 912 - M2 x 6"/>
+        <filter val="DIN 912 - M2,5 x 10"/>
+        <filter val="DIN 912 - M2,5 x 12"/>
+        <filter val="DIN 912 - M2,5 x 8"/>
+        <filter val="DIN 976-1 - M4 x 60 - A"/>
+        <filter val="IS 2269 - M2,5 x 10"/>
+        <filter val="ISO 4032 - M5"/>
+        <filter val="ISO 4034 - M5"/>
+        <filter val="ISO 4035 - M2,5"/>
+        <filter val="ISO 4035 - M5"/>
+        <filter val="ISO 4762  - M2,5 x 10"/>
+        <filter val="ISO 4762  - M2,5 x 12"/>
+        <filter val="ISO 4762  - M2,5 x 16"/>
+        <filter val="ISO 4762  - M2,5 x 25"/>
+        <filter val="ISO 4762  - M2,5 x 6"/>
+        <filter val="ISO 4762  - M2,5 x 8"/>
+        <filter val="ISO 4762  - M4 x 16"/>
+        <filter val="ISO 4762  - M4 x 20"/>
+        <filter val="ISO 4762  - M5 x 10"/>
+        <filter val="ISO 4762  - M5 x 20"/>
+        <filter val="SKF 2RS1608-2RS1"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="2">
       <filters>
         <filter val="Приобретенная"/>
@@ -12515,6 +12550,7 @@
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>